--- a/results/mp/tinybert/corona/confidence/126/desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/desired-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,154 +40,166 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>share</t>
   </si>
 </sst>
 </file>
@@ -545,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -664,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -714,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9166666666666666</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -764,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.96875</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -814,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8636363636363636</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9583333333333334</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -864,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.95</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -914,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -964,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7142857142857143</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.9310344827586207</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1014,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4642857142857143</v>
+        <v>0.1492248062015504</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,186 +1044,114 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>439</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.9017857142857143</v>
+      </c>
+      <c r="L12">
+        <v>101</v>
+      </c>
+      <c r="M12">
+        <v>101</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="L13">
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>35</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>0.8943661971830986</v>
+      </c>
+      <c r="L14">
+        <v>127</v>
+      </c>
+      <c r="M14">
+        <v>127</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>15</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>12</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.4377682403433477</v>
-      </c>
-      <c r="C12">
-        <v>102</v>
-      </c>
-      <c r="D12">
-        <v>102</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>131</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>64</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.9019607843137255</v>
-      </c>
-      <c r="L13">
-        <v>46</v>
-      </c>
-      <c r="M13">
-        <v>46</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.186046511627907</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>70</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="L14">
-        <v>52</v>
-      </c>
-      <c r="M14">
-        <v>52</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>0.8888888888888888</v>
@@ -1237,16 +1177,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.8888888888888888</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,21 +1198,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.8823529411764706</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1284,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.8823529411764706</v>
+        <v>0.875</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1310,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.88</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1336,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.875</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1362,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1388,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.8717948717948718</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1414,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.84</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1440,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.8181818181818182</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1471,16 +1411,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.8076923076923077</v>
+        <v>0.78125</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1492,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.7808219178082192</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1518,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.7793427230046949</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1544,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.7692307692307693</v>
+        <v>0.7441253263707572</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1570,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.7368421052631579</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1596,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.6976744186046512</v>
+        <v>0.7</v>
       </c>
       <c r="L30">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1622,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1648,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.6597222222222222</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L32">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1674,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1700,21 +1640,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.6470588235294118</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1726,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.6363636363636364</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1752,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1778,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1804,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1835,28 +1775,210 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>0.5970588235294118</v>
+      </c>
+      <c r="L39">
+        <v>203</v>
+      </c>
+      <c r="M39">
+        <v>203</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40">
+        <v>0.5564853556485355</v>
+      </c>
+      <c r="L40">
+        <v>133</v>
+      </c>
+      <c r="M40">
+        <v>133</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>24</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K39">
-        <v>0.2282608695652174</v>
-      </c>
-      <c r="L39">
-        <v>21</v>
-      </c>
-      <c r="M39">
-        <v>21</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>71</v>
+      <c r="K42">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="L43">
+        <v>40</v>
+      </c>
+      <c r="M43">
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <v>0.484375</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>31</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45">
+        <v>0.4461538461538462</v>
+      </c>
+      <c r="L45">
+        <v>29</v>
+      </c>
+      <c r="M45">
+        <v>29</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L46">
+        <v>20</v>
+      </c>
+      <c r="M46">
+        <v>20</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
